--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_DeepAR_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_DeepAR_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.007233005141561</v>
+        <v>1.01716982815488</v>
       </c>
       <c r="D2">
-        <v>0.3138711790306856</v>
+        <v>0.3162564994931649</v>
       </c>
       <c r="E2">
         <v>1.765426114777493</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.067556125825421</v>
+        <v>1.089166687490565</v>
       </c>
       <c r="D3">
-        <v>0.2857719250905011</v>
+        <v>0.2837403477047964</v>
       </c>
       <c r="E3">
         <v>1.765426114777493</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.1883112613034561</v>
+        <v>0.4291860951955537</v>
       </c>
       <c r="D4">
-        <v>0.8506402409188598</v>
+        <v>0.6704952402572961</v>
       </c>
       <c r="E4">
         <v>1.765426114777493</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.3105756812206429</v>
+        <v>-0.3277491580830804</v>
       </c>
       <c r="D5">
-        <v>0.7561360622068918</v>
+        <v>0.7451110494170994</v>
       </c>
       <c r="E5">
         <v>1.765426114777493</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.03021980394348056</v>
+        <v>0.04203661712253944</v>
       </c>
       <c r="D6">
-        <v>0.9758929512617056</v>
+        <v>0.9667154040331787</v>
       </c>
       <c r="E6">
         <v>1.464515171383242</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.8905577007580453</v>
+        <v>-0.8199806614268734</v>
       </c>
       <c r="D7">
-        <v>0.3732090173199585</v>
+        <v>0.4179386983821669</v>
       </c>
       <c r="E7">
         <v>1.464515171383242</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.378668754046343</v>
+        <v>-1.046847789468254</v>
       </c>
       <c r="D8">
-        <v>0.1680581064035009</v>
+        <v>0.302555165211988</v>
       </c>
       <c r="E8">
         <v>1.464515171383242</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.7839611883744847</v>
+        <v>-0.9444565343425877</v>
       </c>
       <c r="D9">
-        <v>0.433099732602412</v>
+        <v>0.351600056886006</v>
       </c>
       <c r="E9">
         <v>1.457729590489741</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.400922229076091</v>
+        <v>-1.176259306712132</v>
       </c>
       <c r="D10">
-        <v>0.1612989093008663</v>
+        <v>0.2476615635043664</v>
       </c>
       <c r="E10">
         <v>1.457729590489741</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.5116972628098986</v>
+        <v>-0.6106451015356913</v>
       </c>
       <c r="D11">
-        <v>0.6088853244399031</v>
+        <v>0.5454952792654466</v>
       </c>
       <c r="E11">
         <v>1.700023838105379</v>
